--- a/resources/Assignment 02 - Q2 Dual.xlsx
+++ b/resources/Assignment 02 - Q2 Dual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489857" documentId="8_{FD2867A0-9144-4D1E-9B86-0202AC7BBCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A45E4CD-0141-4E73-A3E2-75FABF101E97}"/>
+  <xr:revisionPtr revIDLastSave="490006" documentId="8_{FD2867A0-9144-4D1E-9B86-0202AC7BBCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F28670BB-B75C-44B4-9634-65D3083D8580}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{48E82BD5-6FB6-44F0-8499-4D4B1DA3E6AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{48E82BD5-6FB6-44F0-8499-4D4B1DA3E6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,22 +526,22 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -549,15 +549,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>681.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -565,20 +565,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>381500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>175.00000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -594,7 +594,7 @@
         <v>5820</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -610,12 +610,12 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -657,12 +657,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -670,42 +670,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>545000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>436000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1">
         <f>B9 * B3 + B10 * B4 + B5 * B11</f>
-        <v>2820375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1293.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,27 +713,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>B15 * B$3 + C15 * B$4 + D15 * B$5</f>
-        <v>545000</v>
+        <v>250</v>
       </c>
       <c r="B28" s="1">
         <f>B20</f>
-        <v>545000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>B16 * B$3 + C16 * B$4 + D16 * B$5</f>
-        <v>436000</v>
+        <v>199.99999999999997</v>
       </c>
       <c r="B29" s="1">
         <f>B21</f>
-        <v>436000</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>